--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4FB7B0-E3BD-414A-9530-57BB25DFB5FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F32D8-DC42-4C9E-97D6-369583C47489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="10815" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -322,9 +322,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,10 +334,22 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,6 +511,9 @@
           <cell r="V28">
             <v>0.1075657234597632</v>
           </cell>
+          <cell r="AH28">
+            <v>0.08</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="V29">
@@ -511,6 +523,16 @@
         <row r="30">
           <cell r="V30">
             <v>0.20183486238532111</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AH32">
+            <v>9.7255299689414816</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AH34">
+            <v>0.69584996581308856</v>
           </cell>
         </row>
       </sheetData>
@@ -604,33 +626,33 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="16">
-          <cell r="V16">
+          <cell r="X16">
             <v>1.4491480765852716E-2</v>
           </cell>
-          <cell r="W16">
+          <cell r="Y16">
             <v>0.11877759501341889</v>
           </cell>
-          <cell r="X16">
+          <cell r="Z16">
             <v>5.9815832237096522E-2</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="X19">
+          <cell r="Z19">
             <v>0.52694217289719625</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="X20">
+          <cell r="Z20">
             <v>7.878212616822429E-2</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="X21">
+          <cell r="Z21">
             <v>5.6731892523364483E-2</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="X22">
+          <cell r="Z22">
             <v>0.19565217391304351</v>
           </cell>
         </row>
@@ -940,10 +962,10 @@
   <dimension ref="B1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL8" sqref="AL8"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,7 +977,8 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="10" width="9.140625" style="11"/>
     <col min="11" max="12" width="9.140625" style="2"/>
-    <col min="13" max="15" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="21" width="9.140625" style="2"/>
     <col min="22" max="22" width="9.140625" style="1"/>
@@ -975,31 +998,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="W1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
       <c r="AC1" s="2"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AR1" s="16"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -1035,7 +1058,7 @@
       <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1090,31 +1113,31 @@
       <c r="AG2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AR2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="AS2" s="7" t="s">
@@ -1174,99 +1197,111 @@
         <f>[1]Main!$D$31</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="M4" s="20">
+        <f>'[1]Financial Model'!$AH$32</f>
+        <v>9.7255299689414816</v>
+      </c>
+      <c r="N4" s="22">
+        <f>'[1]Financial Model'!$AH$34</f>
+        <v>0.69584996581308856</v>
+      </c>
+      <c r="O4" s="22">
+        <f>'[1]Financial Model'!$AH$28</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q4" s="18">
         <f>[1]Main!$C$36</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <f>[1]Main!$C$37</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <f>[1]Main!$C$38</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <f>[1]Main!$C$39</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <f>[1]Main!$C$40</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <f>'[1]Financial Model'!$V$16</f>
         <v>348</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <f>'[1]Financial Model'!$U$16</f>
         <v>422</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <f>'[1]Financial Model'!$T$16</f>
         <v>428.10400000000021</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <f>'[1]Financial Model'!$S$16</f>
         <v>194.77700000000002</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <f>'[1]Financial Model'!$R$16</f>
         <v>202.15100000000001</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <f>'[1]Financial Model'!$Q$16</f>
         <v>185.44100000000026</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="14">
         <f>'[1]Financial Model'!$V$27</f>
         <v>0.36142885811759984</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="14">
         <f>'[1]Financial Model'!$V$28</f>
         <v>0.1075657234597632</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="14">
         <f>'[1]Financial Model'!$V$29</f>
         <v>6.9837447320891033E-2</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG4" s="14">
         <f>'[1]Financial Model'!$V$30</f>
         <v>0.20183486238532111</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AI4" s="14">
         <f>'[1]Financial Model'!$V$24</f>
         <v>6.633854055210775E-2</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="14">
         <f>'[1]Financial Model'!$V$24</f>
         <v>6.633854055210775E-2</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="14">
         <f>'[1]Financial Model'!$U$24</f>
         <v>-2.6747267738223557E-2</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL4" s="14">
         <f>'[1]Financial Model'!$T$24</f>
         <v>0.25909722774006405</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM4" s="14">
         <f>'[1]Financial Model'!$S$24</f>
         <v>9.3822238221378251E-2</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="14">
         <f>'[1]Financial Model'!$R$24</f>
         <v>0.15066760138121227</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="14">
         <f>'[1]Financial Model'!$Q$24</f>
         <v>0.2464935449630965</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="AP4" s="14">
         <f>'[1]Financial Model'!$P$24</f>
         <v>0.19426026330464774</v>
       </c>
-      <c r="AR4" s="16">
+      <c r="AR4" s="15">
         <f>[1]Main!$C$29</f>
         <v>39484</v>
       </c>
@@ -1323,60 +1358,60 @@
         <f>[2]Main!$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f>[2]Main!$D$29</f>
         <v>44713</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <f>[2]Main!$C$34</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <f>[2]Main!$C$35</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <f>[2]Main!$C$36</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <f>[2]Main!$C$37</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="18">
         <f>[2]Main!$C$38</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="AD8" s="15">
-        <f>'[2]Financial Model'!$X$19</f>
+      <c r="AD8" s="14">
+        <f>'[2]Financial Model'!$Z$19</f>
         <v>0.52694217289719625</v>
       </c>
-      <c r="AE8" s="15">
-        <f>'[2]Financial Model'!$X$20</f>
+      <c r="AE8" s="14">
+        <f>'[2]Financial Model'!$Z$20</f>
         <v>7.878212616822429E-2</v>
       </c>
-      <c r="AF8" s="15">
-        <f>'[2]Financial Model'!$X$21</f>
+      <c r="AF8" s="14">
+        <f>'[2]Financial Model'!$Z$21</f>
         <v>5.6731892523364483E-2</v>
       </c>
-      <c r="AG8" s="15">
-        <f>'[2]Financial Model'!$X$22</f>
+      <c r="AG8" s="14">
+        <f>'[2]Financial Model'!$Z$22</f>
         <v>0.19565217391304351</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" s="14">
+        <f>'[2]Financial Model'!$Z$16</f>
+        <v>5.9815832237096522E-2</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f>'[2]Financial Model'!$Z$16</f>
+        <v>5.9815832237096522E-2</v>
+      </c>
+      <c r="AK8" s="14">
+        <f>'[2]Financial Model'!$Y$16</f>
+        <v>0.11877759501341889</v>
+      </c>
+      <c r="AL8" s="14">
         <f>'[2]Financial Model'!$X$16</f>
-        <v>5.9815832237096522E-2</v>
-      </c>
-      <c r="AJ8" s="15">
-        <f>'[2]Financial Model'!$X$16</f>
-        <v>5.9815832237096522E-2</v>
-      </c>
-      <c r="AK8" s="15">
-        <f>'[2]Financial Model'!$W$16</f>
-        <v>0.11877759501341889</v>
-      </c>
-      <c r="AL8" s="15">
-        <f>'[2]Financial Model'!$V$16</f>
         <v>1.4491480765852716E-2</v>
       </c>
       <c r="AS8" s="2">

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F32D8-DC42-4C9E-97D6-369583C47489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF018-5B17-488A-BD42-BBC6170C5F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="10815" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>Ticker</t>
   </si>
@@ -194,6 +203,147 @@
   </si>
   <si>
     <t>Halfords Group Plc.</t>
+  </si>
+  <si>
+    <t>£CARD</t>
+  </si>
+  <si>
+    <t>Card Factory Plc.</t>
+  </si>
+  <si>
+    <t>£CURY</t>
+  </si>
+  <si>
+    <t>Currys Plc.</t>
+  </si>
+  <si>
+    <t>£AO.</t>
+  </si>
+  <si>
+    <t>AO World Plc.</t>
+  </si>
+  <si>
+    <t>£MOON</t>
+  </si>
+  <si>
+    <t>Moonpig Group Plc.</t>
+  </si>
+  <si>
+    <t>£FRAS</t>
+  </si>
+  <si>
+    <t>Frasers Group Plc.</t>
+  </si>
+  <si>
+    <t>£PETS</t>
+  </si>
+  <si>
+    <t>Pets At Home Group Plc.</t>
+  </si>
+  <si>
+    <t>£DNLM</t>
+  </si>
+  <si>
+    <t>Dunelm Group Plc.</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>White Goods</t>
+  </si>
+  <si>
+    <t>White Goods &amp; Tech</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Conglomerate</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>£SMWH</t>
+  </si>
+  <si>
+    <t>WH Smith Plc.</t>
+  </si>
+  <si>
+    <t>Books &amp; Newsagent</t>
+  </si>
+  <si>
+    <t>$COST</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Corporation</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$WMT</t>
+  </si>
+  <si>
+    <t>Wallmart Inc.</t>
+  </si>
+  <si>
+    <t>$TGT</t>
+  </si>
+  <si>
+    <t>Target Corporation</t>
+  </si>
+  <si>
+    <t>$HD</t>
+  </si>
+  <si>
+    <t>The Home Depot, Inc.</t>
+  </si>
+  <si>
+    <t>$DLTR</t>
+  </si>
+  <si>
+    <t>Dollar Tree, Inc.</t>
+  </si>
+  <si>
+    <t>Discount Retail</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>£TSCO</t>
+  </si>
+  <si>
+    <t>£SBRY</t>
+  </si>
+  <si>
+    <t>Tesco Plc.</t>
+  </si>
+  <si>
+    <t>Sainsbury (J) Plc.</t>
+  </si>
+  <si>
+    <t>£DFS</t>
+  </si>
+  <si>
+    <t>DFS Furniture Plc.</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>£SCS</t>
+  </si>
+  <si>
+    <t>SCS Group Plc.</t>
+  </si>
+  <si>
+    <t>£WRKS</t>
+  </si>
+  <si>
+    <t>Works.co.uk Plc.</t>
   </si>
 </sst>
 </file>
@@ -260,7 +410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,6 +506,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -371,7 +543,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -542,7 +714,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -959,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899F0EA-EAFF-4465-A771-1671EE94CF00}">
-  <dimension ref="B1:AX8"/>
+  <dimension ref="B1:AX35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="AY18" sqref="AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,7 +1165,7 @@
     <col min="47" max="47" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9.140625" style="1"/>
     <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1433,6 +1605,313 @@
         <v>53</v>
       </c>
     </row>
+    <row r="14" spans="2:50" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+    </row>
+    <row r="15" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:J1"/>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF018-5B17-488A-BD42-BBC6170C5F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C1E81-7346-431F-A004-4FE7CDAF3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -505,9 +505,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +519,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,6 +716,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -797,7 +800,33 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="12">
+          <cell r="U12">
+            <v>56.400000000000048</v>
+          </cell>
+          <cell r="V12">
+            <v>54.699999999999953</v>
+          </cell>
+          <cell r="W12">
+            <v>41.899999999999864</v>
+          </cell>
+          <cell r="X12">
+            <v>17.499999999999886</v>
+          </cell>
+          <cell r="Y12">
+            <v>53.2</v>
+          </cell>
+          <cell r="Z12">
+            <v>77.699999999999989</v>
+          </cell>
+        </row>
         <row r="16">
+          <cell r="V16">
+            <v>3.6621004566209869E-2</v>
+          </cell>
+          <cell r="W16">
+            <v>3.0834287727954379E-3</v>
+          </cell>
           <cell r="X16">
             <v>1.4491480765852716E-2</v>
           </cell>
@@ -1137,7 +1166,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY18" sqref="AY18"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,21 +1199,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
       <c r="AC1" s="2"/>
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
@@ -1554,6 +1583,30 @@
         <f>[2]Main!$C$38</f>
         <v>3.9654826254826259</v>
       </c>
+      <c r="W8" s="15">
+        <f>'[2]Financial Model'!$Z$12</f>
+        <v>77.699999999999989</v>
+      </c>
+      <c r="X8" s="15">
+        <f>'[2]Financial Model'!$Y$12</f>
+        <v>53.2</v>
+      </c>
+      <c r="Y8" s="15">
+        <f>'[2]Financial Model'!$X$12</f>
+        <v>17.499999999999886</v>
+      </c>
+      <c r="Z8" s="15">
+        <f>'[2]Financial Model'!$W$12</f>
+        <v>41.899999999999864</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>'[2]Financial Model'!$V$12</f>
+        <v>54.699999999999953</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>'[2]Financial Model'!$U$12</f>
+        <v>56.400000000000048</v>
+      </c>
       <c r="AD8" s="14">
         <f>'[2]Financial Model'!$Z$19</f>
         <v>0.52694217289719625</v>
@@ -1586,6 +1639,14 @@
         <f>'[2]Financial Model'!$X$16</f>
         <v>1.4491480765852716E-2</v>
       </c>
+      <c r="AM8" s="14">
+        <f>'[2]Financial Model'!$W$16</f>
+        <v>3.0834287727954379E-3</v>
+      </c>
+      <c r="AN8" s="14">
+        <f>'[2]Financial Model'!$V$16</f>
+        <v>3.6621004566209869E-2</v>
+      </c>
       <c r="AS8" s="2">
         <f>[2]Main!$C$24</f>
         <v>1892</v>
@@ -1605,48 +1666,48 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:50" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
+    <row r="14" spans="2:50" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
     </row>
     <row r="15" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C1E81-7346-431F-A004-4FE7CDAF3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31845B63-C06D-40B9-96CB-27E504E06884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -545,6 +545,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -846,6 +849,9 @@
           <cell r="Z20">
             <v>7.878212616822429E-2</v>
           </cell>
+          <cell r="AL20">
+            <v>0.06</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="Z21">
@@ -855,6 +861,16 @@
         <row r="22">
           <cell r="Z22">
             <v>0.19565217391304351</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AL24">
+            <v>2.3666166665011588</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AL26">
+            <v>0.36012452097767755</v>
           </cell>
         </row>
       </sheetData>
@@ -1563,6 +1579,18 @@
         <f>[2]Main!$D$29</f>
         <v>44713</v>
       </c>
+      <c r="M8" s="20">
+        <f>'[2]Financial Model'!$AL$24</f>
+        <v>2.3666166665011588</v>
+      </c>
+      <c r="N8" s="22">
+        <f>'[2]Financial Model'!$AL$26</f>
+        <v>0.36012452097767755</v>
+      </c>
+      <c r="O8" s="22">
+        <f>'[2]Financial Model'!$AL$20</f>
+        <v>0.06</v>
+      </c>
       <c r="Q8" s="18">
         <f>[2]Main!$C$34</f>
         <v>0.64957894736842103</v>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31845B63-C06D-40B9-96CB-27E504E06884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE54E8B-9A28-42A4-92FB-29F371887C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Ticker</t>
   </si>
@@ -730,7 +730,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>1.74</v>
+            <v>1.829</v>
           </cell>
         </row>
         <row r="7">
@@ -740,7 +740,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>357.91800000000001</v>
+            <v>376.22529999999995</v>
           </cell>
         </row>
         <row r="11">
@@ -750,7 +750,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>308.11799999999999</v>
+            <v>326.42529999999994</v>
           </cell>
         </row>
         <row r="23">
@@ -778,27 +778,27 @@
         </row>
         <row r="34">
           <cell r="C34">
-            <v>0.64957894736842103</v>
+            <v>0.68280453720508161</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>0.26133031542056079</v>
+            <v>0.27469721086448595</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>0.22496933411214953</v>
+            <v>0.23833622955607472</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>4.6064092664092673</v>
+            <v>4.8420244530244538</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>3.9654826254826259</v>
+            <v>4.201097812097812</v>
           </cell>
         </row>
       </sheetData>
@@ -824,6 +824,9 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="U16">
+            <v>7.1953010279001361E-2</v>
+          </cell>
           <cell r="V16">
             <v>3.6621004566209869E-2</v>
           </cell>
@@ -865,12 +868,12 @@
         </row>
         <row r="24">
           <cell r="AL24">
-            <v>2.3666166665011588</v>
+            <v>2.1686259632618929</v>
           </cell>
         </row>
         <row r="26">
           <cell r="AL26">
-            <v>0.36012452097767755</v>
+            <v>0.18568942769923069</v>
           </cell>
         </row>
       </sheetData>
@@ -1176,13 +1179,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899F0EA-EAFF-4465-A771-1671EE94CF00}">
-  <dimension ref="B1:AX35"/>
+  <dimension ref="B1:AX37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1548,12 +1551,15 @@
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="10">
         <f>[2]Main!$C$6</f>
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="G8" s="11">
         <f>[2]Main!$C$7</f>
@@ -1561,7 +1567,7 @@
       </c>
       <c r="H8" s="11">
         <f>[2]Main!$C$8</f>
-        <v>357.91800000000001</v>
+        <v>376.22529999999995</v>
       </c>
       <c r="I8" s="11">
         <f>[2]Main!$C$11</f>
@@ -1569,7 +1575,7 @@
       </c>
       <c r="J8" s="11">
         <f>[2]Main!$C$12</f>
-        <v>308.11799999999999</v>
+        <v>326.42529999999994</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>[2]Main!$C$29</f>
@@ -1581,11 +1587,11 @@
       </c>
       <c r="M8" s="20">
         <f>'[2]Financial Model'!$AL$24</f>
-        <v>2.3666166665011588</v>
+        <v>2.1686259632618929</v>
       </c>
       <c r="N8" s="22">
         <f>'[2]Financial Model'!$AL$26</f>
-        <v>0.36012452097767755</v>
+        <v>0.18568942769923069</v>
       </c>
       <c r="O8" s="22">
         <f>'[2]Financial Model'!$AL$20</f>
@@ -1593,23 +1599,23 @@
       </c>
       <c r="Q8" s="18">
         <f>[2]Main!$C$34</f>
-        <v>0.64957894736842103</v>
+        <v>0.68280453720508161</v>
       </c>
       <c r="R8" s="18">
         <f>[2]Main!$C$35</f>
-        <v>0.26133031542056079</v>
+        <v>0.27469721086448595</v>
       </c>
       <c r="S8" s="18">
         <f>[2]Main!$C$36</f>
-        <v>0.22496933411214953</v>
+        <v>0.23833622955607472</v>
       </c>
       <c r="T8" s="18">
         <f>[2]Main!$C$37</f>
-        <v>4.6064092664092673</v>
+        <v>4.8420244530244538</v>
       </c>
       <c r="U8" s="18">
         <f>[2]Main!$C$38</f>
-        <v>3.9654826254826259</v>
+        <v>4.201097812097812</v>
       </c>
       <c r="W8" s="15">
         <f>'[2]Financial Model'!$Z$12</f>
@@ -1674,6 +1680,14 @@
       <c r="AN8" s="14">
         <f>'[2]Financial Model'!$V$16</f>
         <v>3.6621004566209869E-2</v>
+      </c>
+      <c r="AO8" s="14">
+        <f>'[2]Financial Model'!$V$16</f>
+        <v>3.6621004566209869E-2</v>
+      </c>
+      <c r="AP8" s="14">
+        <f>'[2]Financial Model'!$U$16</f>
+        <v>7.1953010279001361E-2</v>
       </c>
       <c r="AS8" s="2">
         <f>[2]Main!$C$24</f>
@@ -1868,6 +1882,11 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="AW23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1885,6 +1904,11 @@
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="AW24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1902,6 +1926,11 @@
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="AW25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1919,6 +1948,11 @@
       <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="AW26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1936,6 +1970,32 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -1947,6 +2007,11 @@
       <c r="E31" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="AX31" s="2" t="s">
         <v>90</v>
       </c>
@@ -1961,6 +2026,11 @@
       <c r="E32" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="AW32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1986,6 +2056,11 @@
       <c r="E34" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -1997,9 +2072,28 @@
       <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="AX35" s="2" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE54E8B-9A28-42A4-92FB-29F371887C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F32A0C-AFFB-4B38-87A6-A86BA29EEE5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>Ticker</t>
   </si>
@@ -344,6 +335,30 @@
   </si>
   <si>
     <t>Works.co.uk Plc.</t>
+  </si>
+  <si>
+    <t>Hardware &amp; DIY</t>
+  </si>
+  <si>
+    <t>£KGF</t>
+  </si>
+  <si>
+    <t>Kingfisher Plc.</t>
+  </si>
+  <si>
+    <t>B&amp;Q, Screwfix &amp; more</t>
+  </si>
+  <si>
+    <t>Sports Direct, House of Fraiser, GAME</t>
+  </si>
+  <si>
+    <t>Currys PC World &amp; Carphone Warehouse</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>B&amp;M, Heron Foods</t>
   </si>
 </sst>
 </file>
@@ -529,7 +544,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -543,11 +569,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -717,11 +740,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1179,13 +1199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899F0EA-EAFF-4465-A771-1671EE94CF00}">
-  <dimension ref="B1:AX37"/>
+  <dimension ref="B1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1214,10 +1234,11 @@
     <col min="48" max="48" width="9.140625" style="1"/>
     <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="51" max="51" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="29" t="s">
         <v>44</v>
       </c>
@@ -1244,7 +1265,7 @@
       <c r="AP1" s="14"/>
       <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:51" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1375,8 +1396,11 @@
       <c r="AX2" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AY2" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1543,8 +1567,11 @@
       <c r="AX4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AY4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:50" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:51" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -1750,8 +1777,9 @@
       <c r="AU14" s="24"/>
       <c r="AW14" s="24"/>
       <c r="AX14" s="24"/>
-    </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1765,7 +1793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1779,7 +1807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
@@ -1793,7 +1821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1809,8 +1837,11 @@
       <c r="AX18" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AY18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1824,7 +1855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1837,8 +1868,11 @@
       <c r="AX20" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AY20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1872,7 +1906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1894,7 +1928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
@@ -1916,7 +1950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
@@ -1938,7 +1972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>92</v>
       </c>
@@ -1960,7 +1994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>100</v>
       </c>
@@ -1976,28 +2010,43 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AX28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2016,7 +2065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2045,6 +2094,9 @@
       <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="AW33" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -2061,6 +2113,9 @@
       <c r="M34" s="11"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
+      <c r="AX34" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -2100,6 +2155,11 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="W1:AB1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AI2:AP1048574">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2FEDECAA-4E87-41A8-B236-E74A6399BE44}"/>
     <hyperlink ref="B8" r:id="rId2" xr:uid="{65437FD1-BB48-4C4C-9B54-AD9D9DFFBA9B}"/>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F32A0C-AFFB-4B38-87A6-A86BA29EEE5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B4F2F-53F5-4862-A4E9-B21F2032A725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -1202,10 +1202,10 @@
   <dimension ref="B1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B4F2F-53F5-4862-A4E9-B21F2032A725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3832F-DB98-403C-8467-A112097F7B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,9 +506,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -793,7 +790,7 @@
             <v>FY22</v>
           </cell>
           <cell r="D29">
-            <v>44713</v>
+            <v>45093</v>
           </cell>
         </row>
         <row r="34">
@@ -1202,10 +1199,10 @@
   <dimension ref="B1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1214,7 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="10" width="9.140625" style="11"/>
     <col min="11" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="13" max="13" width="9.140625" style="19"/>
     <col min="14" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="21" width="9.140625" style="2"/>
@@ -1239,21 +1236,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
       <c r="AC1" s="2"/>
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
@@ -1299,7 +1296,7 @@
       <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1441,15 +1438,15 @@
         <f>[1]Main!$D$31</f>
         <v>45096</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <f>'[1]Financial Model'!$AH$32</f>
         <v>9.7255299689414816</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <f>'[1]Financial Model'!$AH$34</f>
         <v>0.69584996581308856</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <f>'[1]Financial Model'!$AH$28</f>
         <v>0.08</v>
       </c>
@@ -1608,19 +1605,19 @@
         <f>[2]Main!$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="13">
         <f>[2]Main!$D$29</f>
-        <v>44713</v>
-      </c>
-      <c r="M8" s="20">
+        <v>45093</v>
+      </c>
+      <c r="M8" s="19">
         <f>'[2]Financial Model'!$AL$24</f>
         <v>2.1686259632618929</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f>'[2]Financial Model'!$AL$26</f>
         <v>0.18568942769923069</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f>'[2]Financial Model'!$AL$20</f>
         <v>0.06</v>
       </c>
@@ -1735,49 +1732,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:51" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
+    <row r="14" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3832F-DB98-403C-8467-A112097F7B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481EC03-FA40-4F2B-8991-32D6BE919D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>Ticker</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>B&amp;M, Heron Foods</t>
+  </si>
+  <si>
+    <t>£MKS</t>
+  </si>
+  <si>
+    <t>Marks &amp; Spencer Group Plc.</t>
   </si>
 </sst>
 </file>
@@ -571,6 +577,7 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Broker Targets"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -731,6 +738,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1202,7 +1210,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2030,6 +2038,15 @@
       </c>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481EC03-FA40-4F2B-8991-32D6BE919D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFB5FD-B138-453F-91E0-401B561A7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -18,18 +18,28 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>Ticker</t>
   </si>
@@ -572,8 +582,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -738,14 +751,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -902,6 +915,65 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>0.47720000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1130</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>539.23599999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>539.23599999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>London, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1884</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2014</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1207,10 +1279,10 @@
   <dimension ref="B1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1578,10 +1650,10 @@
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -1590,220 +1662,265 @@
         <v>16</v>
       </c>
       <c r="F8" s="10">
+        <f>[3]Main!$C$6</f>
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <f>[3]Main!$C$7</f>
+        <v>1130</v>
+      </c>
+      <c r="H8" s="11">
+        <f>[3]Main!$C$8</f>
+        <v>539.23599999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <f>[3]Main!$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f>[3]Main!$C$12</f>
+        <v>539.23599999999999</v>
+      </c>
+      <c r="AR8" s="2">
+        <f>[3]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <f>[3]Main!$C$24</f>
+        <v>1884</v>
+      </c>
+      <c r="AT8" s="2">
+        <f>[3]Main!$C$25</f>
+        <v>2014</v>
+      </c>
+      <c r="AU8" s="2" t="str">
+        <f>[3]Main!$C$23</f>
+        <v>London, UK</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
         <f>[2]Main!$C$6</f>
         <v>1.829</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <f>[2]Main!$C$7</f>
         <v>205.7</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <f>[2]Main!$C$8</f>
         <v>376.22529999999995</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="11">
         <f>[2]Main!$C$11</f>
         <v>49.8</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="11">
         <f>[2]Main!$C$12</f>
         <v>326.42529999999994</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f>[2]Main!$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="13">
         <f>[2]Main!$D$29</f>
         <v>45093</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <f>'[2]Financial Model'!$AL$24</f>
         <v>2.1686259632618929</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N9" s="21">
         <f>'[2]Financial Model'!$AL$26</f>
         <v>0.18568942769923069</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O9" s="21">
         <f>'[2]Financial Model'!$AL$20</f>
         <v>0.06</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q9" s="18">
         <f>[2]Main!$C$34</f>
         <v>0.68280453720508161</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R9" s="18">
         <f>[2]Main!$C$35</f>
         <v>0.27469721086448595</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S9" s="18">
         <f>[2]Main!$C$36</f>
         <v>0.23833622955607472</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T9" s="18">
         <f>[2]Main!$C$37</f>
         <v>4.8420244530244538</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U9" s="18">
         <f>[2]Main!$C$38</f>
         <v>4.201097812097812</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W9" s="15">
         <f>'[2]Financial Model'!$Z$12</f>
         <v>77.699999999999989</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X9" s="15">
         <f>'[2]Financial Model'!$Y$12</f>
         <v>53.2</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y9" s="15">
         <f>'[2]Financial Model'!$X$12</f>
         <v>17.499999999999886</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z9" s="15">
         <f>'[2]Financial Model'!$W$12</f>
         <v>41.899999999999864</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA9" s="15">
         <f>'[2]Financial Model'!$V$12</f>
         <v>54.699999999999953</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB9" s="15">
         <f>'[2]Financial Model'!$U$12</f>
         <v>56.400000000000048</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD9" s="14">
         <f>'[2]Financial Model'!$Z$19</f>
         <v>0.52694217289719625</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE9" s="14">
         <f>'[2]Financial Model'!$Z$20</f>
         <v>7.878212616822429E-2</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF9" s="14">
         <f>'[2]Financial Model'!$Z$21</f>
         <v>5.6731892523364483E-2</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG9" s="14">
         <f>'[2]Financial Model'!$Z$22</f>
         <v>0.19565217391304351</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI9" s="14">
         <f>'[2]Financial Model'!$Z$16</f>
         <v>5.9815832237096522E-2</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ9" s="14">
         <f>'[2]Financial Model'!$Z$16</f>
         <v>5.9815832237096522E-2</v>
       </c>
-      <c r="AK8" s="14">
+      <c r="AK9" s="14">
         <f>'[2]Financial Model'!$Y$16</f>
         <v>0.11877759501341889</v>
       </c>
-      <c r="AL8" s="14">
+      <c r="AL9" s="14">
         <f>'[2]Financial Model'!$X$16</f>
         <v>1.4491480765852716E-2</v>
       </c>
-      <c r="AM8" s="14">
+      <c r="AM9" s="14">
         <f>'[2]Financial Model'!$W$16</f>
         <v>3.0834287727954379E-3</v>
       </c>
-      <c r="AN8" s="14">
+      <c r="AN9" s="14">
         <f>'[2]Financial Model'!$V$16</f>
         <v>3.6621004566209869E-2</v>
       </c>
-      <c r="AO8" s="14">
+      <c r="AO9" s="14">
         <f>'[2]Financial Model'!$V$16</f>
         <v>3.6621004566209869E-2</v>
       </c>
-      <c r="AP8" s="14">
+      <c r="AP9" s="14">
         <f>'[2]Financial Model'!$U$16</f>
         <v>7.1953010279001361E-2</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS9" s="2">
         <f>[2]Main!$C$24</f>
         <v>1892</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT9" s="2">
         <f>[2]Main!$C$25</f>
         <v>2004</v>
       </c>
-      <c r="AU8" s="2" t="str">
+      <c r="AU9" s="2" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redditch, UK</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-    </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="15" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1814,36 +1931,30 @@
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW18" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AX18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
@@ -2176,9 +2287,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2FEDECAA-4E87-41A8-B236-E74A6399BE44}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{65437FD1-BB48-4C4C-9B54-AD9D9DFFBA9B}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{65437FD1-BB48-4C4C-9B54-AD9D9DFFBA9B}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{9DFEFF09-0C68-43D1-8114-ED7388865CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFB5FD-B138-453F-91E0-401B561A7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04078E36-5747-44EA-B498-EACE3B259AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>Ticker</t>
   </si>
@@ -375,6 +376,9 @@
   </si>
   <si>
     <t>Marks &amp; Spencer Group Plc.</t>
+  </si>
+  <si>
+    <t>Discount Hobbies</t>
   </si>
 </sst>
 </file>
@@ -768,6 +772,65 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
+            <v>0.47720000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1130</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>539.23599999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>539.23599999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>London, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1884</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
             <v>1.829</v>
           </cell>
         </row>
@@ -920,7 +983,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -934,46 +997,105 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>0.47720000000000001</v>
+            <v>0.40100000000000002</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1130</v>
+            <v>62.5</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>539.23599999999999</v>
+            <v>25.0625</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>9.1479999999999997</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>539.23599999999999</v>
+            <v>15.9145</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>London, UK</v>
+            <v>Birmingham, UK</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1884</v>
+            <v>1981</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2014</v>
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>FY23</v>
+          </cell>
+          <cell r="D31">
+            <v>45169</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>15.152660217654205</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>8.9476333621323664E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>5.6816802450535879E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>7.6076645797761591E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>3.0192563081009398</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="V20">
+            <v>5.8466538185390826E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="V23">
+            <v>0.15672862028832346</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="V24">
+            <v>3.3655596889704403E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="V25">
+            <v>1.8818144818673135E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="V26">
+            <v>-5.2936476228525958E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1279,10 +1401,10 @@
   <dimension ref="B1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1662,39 +1784,39 @@
         <v>16</v>
       </c>
       <c r="F8" s="10">
-        <f>[3]Main!$C$6</f>
+        <f>[2]Main!$C$6</f>
         <v>0.47720000000000001</v>
       </c>
       <c r="G8" s="11">
-        <f>[3]Main!$C$7</f>
+        <f>[2]Main!$C$7</f>
         <v>1130</v>
       </c>
       <c r="H8" s="11">
-        <f>[3]Main!$C$8</f>
+        <f>[2]Main!$C$8</f>
         <v>539.23599999999999</v>
       </c>
       <c r="I8" s="11">
-        <f>[3]Main!$C$11</f>
+        <f>[2]Main!$C$11</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>[3]Main!$C$12</f>
+        <f>[2]Main!$C$12</f>
         <v>539.23599999999999</v>
       </c>
       <c r="AR8" s="2">
-        <f>[3]Main!$C$29</f>
+        <f>[2]Main!$C$29</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <f>[3]Main!$C$24</f>
+        <f>[2]Main!$C$24</f>
         <v>1884</v>
       </c>
       <c r="AT8" s="2">
-        <f>[3]Main!$C$25</f>
+        <f>[2]Main!$C$25</f>
         <v>2014</v>
       </c>
       <c r="AU8" s="2" t="str">
-        <f>[3]Main!$C$23</f>
+        <f>[2]Main!$C$23</f>
         <v>London, UK</v>
       </c>
       <c r="AW8" s="2" t="s">
@@ -1721,147 +1843,147 @@
         <v>16</v>
       </c>
       <c r="F9" s="10">
-        <f>[2]Main!$C$6</f>
+        <f>[3]Main!$C$6</f>
         <v>1.829</v>
       </c>
       <c r="G9" s="11">
-        <f>[2]Main!$C$7</f>
+        <f>[3]Main!$C$7</f>
         <v>205.7</v>
       </c>
       <c r="H9" s="11">
-        <f>[2]Main!$C$8</f>
+        <f>[3]Main!$C$8</f>
         <v>376.22529999999995</v>
       </c>
       <c r="I9" s="11">
-        <f>[2]Main!$C$11</f>
+        <f>[3]Main!$C$11</f>
         <v>49.8</v>
       </c>
       <c r="J9" s="11">
-        <f>[2]Main!$C$12</f>
+        <f>[3]Main!$C$12</f>
         <v>326.42529999999994</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>[2]Main!$C$29</f>
+        <f>[3]Main!$C$29</f>
         <v>FY22</v>
       </c>
       <c r="L9" s="13">
-        <f>[2]Main!$D$29</f>
+        <f>[3]Main!$D$29</f>
         <v>45093</v>
       </c>
       <c r="M9" s="19">
-        <f>'[2]Financial Model'!$AL$24</f>
+        <f>'[3]Financial Model'!$AL$24</f>
         <v>2.1686259632618929</v>
       </c>
       <c r="N9" s="21">
-        <f>'[2]Financial Model'!$AL$26</f>
+        <f>'[3]Financial Model'!$AL$26</f>
         <v>0.18568942769923069</v>
       </c>
       <c r="O9" s="21">
-        <f>'[2]Financial Model'!$AL$20</f>
+        <f>'[3]Financial Model'!$AL$20</f>
         <v>0.06</v>
       </c>
       <c r="Q9" s="18">
-        <f>[2]Main!$C$34</f>
+        <f>[3]Main!$C$34</f>
         <v>0.68280453720508161</v>
       </c>
       <c r="R9" s="18">
-        <f>[2]Main!$C$35</f>
+        <f>[3]Main!$C$35</f>
         <v>0.27469721086448595</v>
       </c>
       <c r="S9" s="18">
-        <f>[2]Main!$C$36</f>
+        <f>[3]Main!$C$36</f>
         <v>0.23833622955607472</v>
       </c>
       <c r="T9" s="18">
-        <f>[2]Main!$C$37</f>
+        <f>[3]Main!$C$37</f>
         <v>4.8420244530244538</v>
       </c>
       <c r="U9" s="18">
-        <f>[2]Main!$C$38</f>
+        <f>[3]Main!$C$38</f>
         <v>4.201097812097812</v>
       </c>
       <c r="W9" s="15">
-        <f>'[2]Financial Model'!$Z$12</f>
+        <f>'[3]Financial Model'!$Z$12</f>
         <v>77.699999999999989</v>
       </c>
       <c r="X9" s="15">
-        <f>'[2]Financial Model'!$Y$12</f>
+        <f>'[3]Financial Model'!$Y$12</f>
         <v>53.2</v>
       </c>
       <c r="Y9" s="15">
-        <f>'[2]Financial Model'!$X$12</f>
+        <f>'[3]Financial Model'!$X$12</f>
         <v>17.499999999999886</v>
       </c>
       <c r="Z9" s="15">
-        <f>'[2]Financial Model'!$W$12</f>
+        <f>'[3]Financial Model'!$W$12</f>
         <v>41.899999999999864</v>
       </c>
       <c r="AA9" s="15">
-        <f>'[2]Financial Model'!$V$12</f>
+        <f>'[3]Financial Model'!$V$12</f>
         <v>54.699999999999953</v>
       </c>
       <c r="AB9" s="15">
-        <f>'[2]Financial Model'!$U$12</f>
+        <f>'[3]Financial Model'!$U$12</f>
         <v>56.400000000000048</v>
       </c>
       <c r="AD9" s="14">
-        <f>'[2]Financial Model'!$Z$19</f>
+        <f>'[3]Financial Model'!$Z$19</f>
         <v>0.52694217289719625</v>
       </c>
       <c r="AE9" s="14">
-        <f>'[2]Financial Model'!$Z$20</f>
+        <f>'[3]Financial Model'!$Z$20</f>
         <v>7.878212616822429E-2</v>
       </c>
       <c r="AF9" s="14">
-        <f>'[2]Financial Model'!$Z$21</f>
+        <f>'[3]Financial Model'!$Z$21</f>
         <v>5.6731892523364483E-2</v>
       </c>
       <c r="AG9" s="14">
-        <f>'[2]Financial Model'!$Z$22</f>
+        <f>'[3]Financial Model'!$Z$22</f>
         <v>0.19565217391304351</v>
       </c>
       <c r="AI9" s="14">
-        <f>'[2]Financial Model'!$Z$16</f>
+        <f>'[3]Financial Model'!$Z$16</f>
         <v>5.9815832237096522E-2</v>
       </c>
       <c r="AJ9" s="14">
-        <f>'[2]Financial Model'!$Z$16</f>
+        <f>'[3]Financial Model'!$Z$16</f>
         <v>5.9815832237096522E-2</v>
       </c>
       <c r="AK9" s="14">
-        <f>'[2]Financial Model'!$Y$16</f>
+        <f>'[3]Financial Model'!$Y$16</f>
         <v>0.11877759501341889</v>
       </c>
       <c r="AL9" s="14">
-        <f>'[2]Financial Model'!$X$16</f>
+        <f>'[3]Financial Model'!$X$16</f>
         <v>1.4491480765852716E-2</v>
       </c>
       <c r="AM9" s="14">
-        <f>'[2]Financial Model'!$W$16</f>
+        <f>'[3]Financial Model'!$W$16</f>
         <v>3.0834287727954379E-3</v>
       </c>
       <c r="AN9" s="14">
-        <f>'[2]Financial Model'!$V$16</f>
+        <f>'[3]Financial Model'!$V$16</f>
         <v>3.6621004566209869E-2</v>
       </c>
       <c r="AO9" s="14">
-        <f>'[2]Financial Model'!$V$16</f>
+        <f>'[3]Financial Model'!$V$16</f>
         <v>3.6621004566209869E-2</v>
       </c>
       <c r="AP9" s="14">
-        <f>'[2]Financial Model'!$U$16</f>
+        <f>'[3]Financial Model'!$U$16</f>
         <v>7.1953010279001361E-2</v>
       </c>
       <c r="AS9" s="2">
-        <f>[2]Main!$C$24</f>
+        <f>[3]Main!$C$24</f>
         <v>1892</v>
       </c>
       <c r="AT9" s="2">
-        <f>[2]Main!$C$25</f>
+        <f>[3]Main!$C$25</f>
         <v>2004</v>
       </c>
       <c r="AU9" s="2" t="str">
-        <f>[2]Main!$C$23</f>
+        <f>[3]Main!$C$23</f>
         <v>Redditch, UK</v>
       </c>
       <c r="AW9" s="2" t="s">
@@ -1871,70 +1993,163 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-    </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX16" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="10">
+        <f>[4]Main!$C$6</f>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G11" s="11">
+        <f>[4]Main!$C$7</f>
+        <v>62.5</v>
+      </c>
+      <c r="H11" s="11">
+        <f>[4]Main!$C$8</f>
+        <v>25.0625</v>
+      </c>
+      <c r="I11" s="11">
+        <f>[4]Main!$C$11</f>
+        <v>9.1479999999999997</v>
+      </c>
+      <c r="J11" s="11">
+        <f>[4]Main!$C$12</f>
+        <v>15.9145</v>
+      </c>
+      <c r="K11" s="15" t="str">
+        <f>[4]Main!$C$31</f>
+        <v>FY23</v>
+      </c>
+      <c r="L11" s="13">
+        <f>[4]Main!$D$31</f>
+        <v>45169</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="Q11" s="18">
+        <f>[4]Main!$C$36</f>
+        <v>15.152660217654205</v>
+      </c>
+      <c r="R11" s="18">
+        <f>[4]Main!$C$37</f>
+        <v>8.9476333621323664E-2</v>
+      </c>
+      <c r="S11" s="18">
+        <f>[4]Main!$C$38</f>
+        <v>5.6816802450535879E-2</v>
+      </c>
+      <c r="T11" s="18">
+        <f>[4]Main!$C$39</f>
+        <v>7.6076645797761591E-2</v>
+      </c>
+      <c r="U11" s="18">
+        <f>[4]Main!$C$40</f>
+        <v>3.0192563081009398</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>'[4]Financial Model'!$V$23</f>
+        <v>0.15672862028832346</v>
+      </c>
+      <c r="AE11" s="14">
+        <f>'[4]Financial Model'!$V$24</f>
+        <v>3.3655596889704403E-2</v>
+      </c>
+      <c r="AF11" s="14">
+        <f>'[4]Financial Model'!$V$25</f>
+        <v>1.8818144818673135E-2</v>
+      </c>
+      <c r="AG11" s="14">
+        <f>'[4]Financial Model'!$V$26</f>
+        <v>-5.2936476228525958E-2</v>
+      </c>
+      <c r="AI11" s="14">
+        <f>'[4]Financial Model'!$V$20</f>
+        <v>5.8466538185390826E-2</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f>'[4]Financial Model'!$V$20</f>
+        <v>5.8466538185390826E-2</v>
+      </c>
+      <c r="AS11" s="2">
+        <f>[4]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AT11" s="2">
+        <f>[4]Main!$C$25</f>
+        <v>2018</v>
+      </c>
+      <c r="AU11" s="2" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>Birmingham, UK</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -1945,98 +2160,90 @@
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AX18" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="AX21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AX22" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="AW23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2046,10 +2253,10 @@
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -2068,10 +2275,10 @@
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
@@ -2082,18 +2289,18 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="AW25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -2112,10 +2319,10 @@
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -2125,6 +2332,12 @@
       <c r="M27" s="11"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
+      <c r="AW27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -2289,8 +2502,9 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2FEDECAA-4E87-41A8-B236-E74A6399BE44}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{65437FD1-BB48-4C4C-9B54-AD9D9DFFBA9B}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{9DFEFF09-0C68-43D1-8114-ED7388865CBB}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{39AE5F11-1A95-4DC9-B444-CE68356AD509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04078E36-5747-44EA-B498-EACE3B259AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E403728-FAD4-4569-A078-7626A529B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>Ticker</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Discount Hobbies</t>
+  </si>
+  <si>
+    <t>Stores</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -553,6 +556,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,6 +644,11 @@
             <v>2014</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="C27">
+            <v>1140</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="C29">
             <v>39484</v>
@@ -755,7 +766,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -823,6 +834,9 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1035,6 +1049,16 @@
             <v>2018</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="C27">
+            <v>526</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>4044</v>
+          </cell>
+        </row>
         <row r="31">
           <cell r="C31" t="str">
             <v>FY23</v>
@@ -1070,7 +1094,27 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="16">
+          <cell r="S16">
+            <v>-17.701999999999995</v>
+          </cell>
+          <cell r="T16">
+            <v>-2.2989999999999986</v>
+          </cell>
+          <cell r="U16">
+            <v>13.962999999999985</v>
+          </cell>
+          <cell r="V16">
+            <v>5.2709999999999821</v>
+          </cell>
+        </row>
         <row r="20">
+          <cell r="T20">
+            <v>-0.19712764728361809</v>
+          </cell>
+          <cell r="U20">
+            <v>0.46463360637591311</v>
+          </cell>
           <cell r="V20">
             <v>5.8466538185390826E-2</v>
           </cell>
@@ -1398,13 +1442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899F0EA-EAFF-4465-A771-1671EE94CF00}">
-  <dimension ref="B1:AY37"/>
+  <dimension ref="B1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1427,32 +1471,33 @@
     <col min="34" max="34" width="9.140625" style="1"/>
     <col min="35" max="42" width="9.140625" style="2"/>
     <col min="43" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="9.140625" style="2"/>
-    <col min="47" max="47" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
-    <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="36.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col min="44" max="44" width="9.140625" style="15"/>
+    <col min="45" max="45" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.140625" style="2"/>
+    <col min="48" max="48" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="28" t="s">
+    <row r="1" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
       <c r="AC1" s="2"/>
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
@@ -1462,9 +1507,9 @@
       <c r="AN1" s="14"/>
       <c r="AO1" s="14"/>
       <c r="AP1" s="14"/>
-      <c r="AR1" s="15"/>
-    </row>
-    <row r="2" spans="2:51" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS1" s="15"/>
+    </row>
+    <row r="2" spans="2:52" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1578,28 +1623,31 @@
         <v>49</v>
       </c>
       <c r="AR2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1745,32 +1793,36 @@
         <v>0.19426026330464774</v>
       </c>
       <c r="AR4" s="15">
+        <f>[1]Main!$C$27</f>
+        <v>1140</v>
+      </c>
+      <c r="AS4" s="15">
         <f>[1]Main!$C$29</f>
         <v>39484</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <f>[1]Main!$C$24</f>
         <v>1978</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AU4" s="2">
         <f>[1]Main!$C$25</f>
         <v>2014</v>
       </c>
-      <c r="AU4" s="2" t="str">
+      <c r="AV4" s="2" t="str">
         <f>[1]Main!$C$23</f>
         <v>Luxembourg/Liverpool</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>57</v>
       </c>
@@ -1803,33 +1855,33 @@
         <f>[2]Main!$C$12</f>
         <v>539.23599999999999</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AS8" s="2">
         <f>[2]Main!$C$29</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AT8" s="2">
         <f>[2]Main!$C$24</f>
         <v>1884</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AU8" s="2">
         <f>[2]Main!$C$25</f>
         <v>2014</v>
       </c>
-      <c r="AU8" s="2" t="str">
+      <c r="AV8" s="2" t="str">
         <f>[2]Main!$C$23</f>
         <v>London, UK</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1974,26 +2026,26 @@
         <f>'[3]Financial Model'!$U$16</f>
         <v>7.1953010279001361E-2</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AT9" s="2">
         <f>[3]Main!$C$24</f>
         <v>1892</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AU9" s="2">
         <f>[3]Main!$C$25</f>
         <v>2004</v>
       </c>
-      <c r="AU9" s="2" t="str">
+      <c r="AV9" s="2" t="str">
         <f>[3]Main!$C$23</f>
         <v>Redditch, UK</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>100</v>
       </c>
@@ -2057,6 +2109,24 @@
         <f>[4]Main!$C$40</f>
         <v>3.0192563081009398</v>
       </c>
+      <c r="W11" s="15">
+        <f>'[4]Financial Model'!$V$16</f>
+        <v>5.2709999999999821</v>
+      </c>
+      <c r="X11" s="15">
+        <f>'[4]Financial Model'!$U$16</f>
+        <v>13.962999999999985</v>
+      </c>
+      <c r="Y11" s="15">
+        <f>'[4]Financial Model'!$T$16</f>
+        <v>-2.2989999999999986</v>
+      </c>
+      <c r="Z11" s="15">
+        <f>'[4]Financial Model'!$S$16</f>
+        <v>-17.701999999999995</v>
+      </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
       <c r="AD11" s="14">
         <f>'[4]Financial Model'!$V$23</f>
         <v>0.15672862028832346</v>
@@ -2081,26 +2151,42 @@
         <f>'[4]Financial Model'!$V$20</f>
         <v>5.8466538185390826E-2</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AK11" s="14">
+        <f>'[4]Financial Model'!$U$20</f>
+        <v>0.46463360637591311</v>
+      </c>
+      <c r="AL11" s="14">
+        <f>'[4]Financial Model'!$T$20</f>
+        <v>-0.19712764728361809</v>
+      </c>
+      <c r="AR11" s="15">
+        <f>[4]Main!$C$27</f>
+        <v>526</v>
+      </c>
+      <c r="AS11" s="15">
+        <f>[4]Main!$C$29</f>
+        <v>4044</v>
+      </c>
+      <c r="AT11" s="2">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AU11" s="2">
         <f>[4]Main!$C$25</f>
         <v>2018</v>
       </c>
-      <c r="AU11" s="2" t="str">
+      <c r="AV11" s="2" t="str">
         <f>[4]Main!$C$23</f>
         <v>Birmingham, UK</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AX11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -2136,15 +2222,16 @@
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
       <c r="AP16" s="23"/>
-      <c r="AR16" s="23"/>
+      <c r="AR16" s="28"/>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23"/>
       <c r="AU16" s="23"/>
-      <c r="AW16" s="23"/>
+      <c r="AV16" s="23"/>
       <c r="AX16" s="23"/>
       <c r="AY16" s="23"/>
-    </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AZ16" s="23"/>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2154,11 +2241,11 @@
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX17" s="2" t="s">
+      <c r="AY17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
@@ -2168,11 +2255,11 @@
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX18" s="2" t="s">
+      <c r="AY18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2182,11 +2269,11 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX19" s="2" t="s">
+      <c r="AY19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,11 +2283,11 @@
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX20" s="2" t="s">
+      <c r="AY20" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2210,14 +2297,14 @@
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AX21" s="2" t="s">
+      <c r="AY21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AY21" s="2" t="s">
+      <c r="AZ21" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2227,14 +2314,14 @@
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW22" s="2" t="s">
+      <c r="AX22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX22" s="2" t="s">
+      <c r="AY22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
@@ -2244,14 +2331,14 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW23" s="2" t="s">
+      <c r="AX23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX23" s="2" t="s">
+      <c r="AY23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2266,14 +2353,14 @@
       <c r="M24" s="11"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="AW24" s="2" t="s">
+      <c r="AX24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX24" s="2" t="s">
+      <c r="AY24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2288,14 +2375,14 @@
       <c r="M25" s="11"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="AW25" s="2" t="s">
+      <c r="AX25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX25" s="2" t="s">
+      <c r="AY25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -2310,14 +2397,14 @@
       <c r="M26" s="11"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="AW26" s="2" t="s">
+      <c r="AX26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX26" s="2" t="s">
+      <c r="AY26" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
@@ -2332,14 +2419,14 @@
       <c r="M27" s="11"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="AW27" s="2" t="s">
+      <c r="AX27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX27" s="2" t="s">
+      <c r="AY27" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2354,14 +2441,14 @@
       <c r="M28" s="11"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="AX28" s="2" t="s">
+      <c r="AY28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY28" s="2" t="s">
+      <c r="AZ28" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>110</v>
       </c>
@@ -2377,14 +2464,14 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:52" x14ac:dyDescent="0.2">
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2399,11 +2486,11 @@
       <c r="M31" s="11"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="AX31" s="2" t="s">
+      <c r="AY31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2418,11 +2505,11 @@
       <c r="M32" s="11"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="AW32" s="2" t="s">
+      <c r="AX32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
@@ -2432,11 +2519,11 @@
       <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AW33" s="2" t="s">
+      <c r="AX33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
@@ -2451,11 +2538,11 @@
       <c r="M34" s="11"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="AX34" s="2" t="s">
+      <c r="AY34" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
@@ -2470,18 +2557,18 @@
       <c r="M35" s="11"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="AX35" s="2" t="s">
+      <c r="AY35" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:51" x14ac:dyDescent="0.2">
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E403728-FAD4-4569-A078-7626A529B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A424C03-96FF-473A-BCA6-71BA4D490411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -592,11 +583,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -773,7 +761,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -832,11 +820,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -998,11 +983,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1109,6 +1091,12 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="R20">
+            <v>0.1320614263404476</v>
+          </cell>
+          <cell r="S20">
+            <v>3.4823354133232787E-2</v>
+          </cell>
           <cell r="T20">
             <v>-0.19712764728361809</v>
           </cell>
@@ -1445,10 +1433,10 @@
   <dimension ref="B1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2158,6 +2146,14 @@
       <c r="AL11" s="14">
         <f>'[4]Financial Model'!$T$20</f>
         <v>-0.19712764728361809</v>
+      </c>
+      <c r="AM11" s="14">
+        <f>+'[4]Financial Model'!$S$20</f>
+        <v>3.4823354133232787E-2</v>
+      </c>
+      <c r="AN11" s="14">
+        <f>+'[4]Financial Model'!$R$20</f>
+        <v>0.1320614263404476</v>
       </c>
       <c r="AR11" s="15">
         <f>[4]Main!$C$27</f>

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A424C03-96FF-473A-BCA6-71BA4D490411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAFCB95-6F47-415F-AF01-620FD9657E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Ticker</t>
   </si>
@@ -373,6 +382,12 @@
   </si>
   <si>
     <t>Stores</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The Works &amp; TheWorks.co.uk</t>
   </si>
 </sst>
 </file>
@@ -583,7 +598,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -761,7 +776,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -820,7 +835,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -983,8 +998,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1433,10 +1451,10 @@
   <dimension ref="B1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN12" sqref="AN12"/>
+      <selection pane="bottomRight" activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2155,6 +2173,12 @@
         <f>+'[4]Financial Model'!$R$20</f>
         <v>0.1320614263404476</v>
       </c>
+      <c r="AO11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="AR11" s="15">
         <f>[4]Main!$C$27</f>
         <v>526</v>
@@ -2180,6 +2204,9 @@
       </c>
       <c r="AY11" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/Overview - Retailers.xlsx
+++ b/Overview - Retailers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAFCB95-6F47-415F-AF01-620FD9657E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D079D01C-3B82-4E83-988D-657254B638C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE0BD80-0294-417F-B513-C2C882DCE57C}"/>
   </bookViews>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,7 +589,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -776,7 +767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -835,7 +826,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -998,11 +989,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1134,6 +1122,9 @@
           <cell r="V24">
             <v>3.3655596889704403E-2</v>
           </cell>
+          <cell r="AK24">
+            <v>0.1</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="V25">
@@ -1143,6 +1134,16 @@
         <row r="26">
           <cell r="V26">
             <v>-5.2936476228525958E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AK28">
+            <v>0.50498613363482259</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AK30">
+            <v>0.25931704148334811</v>
           </cell>
         </row>
       </sheetData>
@@ -1451,10 +1452,10 @@
   <dimension ref="B1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ12" sqref="AZ12"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2092,9 +2093,18 @@
         <f>[4]Main!$D$31</f>
         <v>45169</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="19">
+        <f>+'[4]Financial Model'!$AK$28</f>
+        <v>0.50498613363482259</v>
+      </c>
+      <c r="N11" s="21">
+        <f>+'[4]Financial Model'!$AK$30</f>
+        <v>0.25931704148334811</v>
+      </c>
+      <c r="O11" s="21">
+        <f>+'[4]Financial Model'!$AK$24</f>
+        <v>0.1</v>
+      </c>
       <c r="Q11" s="18">
         <f>[4]Main!$C$36</f>
         <v>15.152660217654205</v>
